--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>模型</t>
   </si>
@@ -41,10 +41,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>imdb
-models</t>
-  </si>
-  <si>
     <t>Attention_LSTM</t>
   </si>
   <si>
@@ -120,17 +116,10 @@
     <t>size of tensor不匹配</t>
   </si>
   <si>
-    <t>my
-models</t>
-  </si>
-  <si>
     <t>BoW+RF</t>
   </si>
   <si>
     <t>Word2Vec+RF</t>
-  </si>
-  <si>
-    <t>设备信息</t>
   </si>
   <si>
     <t>CPU</t>
@@ -550,19 +539,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -587,6 +563,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -894,44 +883,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,73 +932,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,328 +1481,311 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.6" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.2666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.2666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7583333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.7916666666667" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9">
         <v>0.93</v>
       </c>
-      <c r="D2" s="7">
+      <c r="C10" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
         <v>0.86</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0.96</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="C11" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0.81</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.78</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.97</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.93</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.93</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="C13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12">
-        <v>0.86</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.86</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="20" t="s">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0.83</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="34" t="s">
+      <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="D20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="C21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38" t="s">
+      <c r="D21" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>模型</t>
   </si>
@@ -47,18 +47,27 @@
     <t>速度较快</t>
   </si>
   <si>
+    <t>BoW+RF</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>速度较快，效果还行</t>
+  </si>
+  <si>
     <t>BERT_Native</t>
   </si>
   <si>
     <t>速度非常慢，显存占用较高</t>
   </si>
   <si>
+    <t>Word2Vec+RF</t>
+  </si>
+  <si>
     <t>BERT_Scratch</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>适配了最新的库，跑不出来</t>
   </si>
   <si>
@@ -98,9 +107,6 @@
     <t>GRU</t>
   </si>
   <si>
-    <t>速度较快，效果还行</t>
-  </si>
-  <si>
     <t>LSTM</t>
   </si>
   <si>
@@ -114,36 +120,6 @@
   </si>
   <si>
     <t>size of tensor不匹配</t>
-  </si>
-  <si>
-    <t>BoW+RF</t>
-  </si>
-  <si>
-    <t>Word2Vec+RF</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>GPU</t>
-  </si>
-  <si>
-    <t>Kaggle GPU</t>
-  </si>
-  <si>
-    <t>I5-6300HQ @2.8GHz</t>
-  </si>
-  <si>
-    <t>16G</t>
-  </si>
-  <si>
-    <t>GTX1060 6G</t>
-  </si>
-  <si>
-    <t>Tesla P100</t>
   </si>
 </sst>
 </file>
@@ -509,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -558,6 +534,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -592,44 +579,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -759,7 +709,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,34 +721,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -883,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,56 +855,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1481,23 +1422,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.6" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.2666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.7583333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.7916666666667" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="18.6916666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1510,8 +1453,20 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1524,266 +1479,271 @@
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10">
         <v>0.96</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>0.91</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="G3" s="15">
+        <v>0.83</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10">
         <v>0.75</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>0.75</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.81</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>0.78</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10">
         <v>0.97</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>0.91</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10">
         <v>0.93</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>0.93</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="D10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="10">
         <v>0.86</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>0.86</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="10">
         <v>0.75</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <v>0.75</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="D12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="A14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="16"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.85</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0.83</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="A15" s="20"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="20" spans="5:5">
       <c r="E20"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>模型</t>
   </si>
@@ -47,79 +47,79 @@
     <t>速度较快</t>
   </si>
   <si>
+    <t>BERT_Native</t>
+  </si>
+  <si>
+    <t>速度非常慢，显存占用较高</t>
+  </si>
+  <si>
+    <t>BERT_Scratch</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>适配了最新的库，跑不出来</t>
+  </si>
+  <si>
+    <t>BERT_Trainer</t>
+  </si>
+  <si>
+    <t>Capsule_LSTM</t>
+  </si>
+  <si>
+    <t>input和target的batch_size不匹配</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>改为跑20轮，效果有一定提升</t>
+  </si>
+  <si>
+    <t>CNN_LSTM</t>
+  </si>
+  <si>
+    <t>比起纯CNN效果有一定提升</t>
+  </si>
+  <si>
+    <t>DistilBERT_Native</t>
+  </si>
+  <si>
+    <t>速度非常慢，显存占用非常高</t>
+  </si>
+  <si>
+    <t>DistilBERT_Trainer</t>
+  </si>
+  <si>
+    <t>适配了最新的库，kaggle跑出来了</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>速度较快，效果还行</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>速度较快，效果一般</t>
+  </si>
+  <si>
+    <t>RoBERTa_Trainer</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>size of tensor不匹配</t>
+  </si>
+  <si>
     <t>BoW+RF</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>速度较快，效果还行</t>
-  </si>
-  <si>
-    <t>BERT_Native</t>
-  </si>
-  <si>
-    <t>速度非常慢，显存占用较高</t>
-  </si>
-  <si>
     <t>Word2Vec+RF</t>
-  </si>
-  <si>
-    <t>BERT_Scratch</t>
-  </si>
-  <si>
-    <t>适配了最新的库，跑不出来</t>
-  </si>
-  <si>
-    <t>BERT_Trainer</t>
-  </si>
-  <si>
-    <t>Capsule_LSTM</t>
-  </si>
-  <si>
-    <t>input和target的batch_size不匹配</t>
-  </si>
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>改为跑20轮，效果有一定提升</t>
-  </si>
-  <si>
-    <t>CNN_LSTM</t>
-  </si>
-  <si>
-    <t>比起纯CNN效果有一定提升</t>
-  </si>
-  <si>
-    <t>DistilBERT_Native</t>
-  </si>
-  <si>
-    <t>速度非常慢，显存占用非常高</t>
-  </si>
-  <si>
-    <t>DistilBERT_Trainer</t>
-  </si>
-  <si>
-    <t>适配了最新的库，kaggle跑出来了</t>
-  </si>
-  <si>
-    <t>GRU</t>
-  </si>
-  <si>
-    <t>LSTM</t>
-  </si>
-  <si>
-    <t>速度较快，效果一般</t>
-  </si>
-  <si>
-    <t>RoBERTa_Trainer</t>
-  </si>
-  <si>
-    <t>Transformer</t>
-  </si>
-  <si>
-    <t>size of tensor不匹配</t>
   </si>
 </sst>
 </file>
@@ -534,17 +534,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -572,6 +561,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -833,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,16 +855,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,29 +882,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1425,7 +1422,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1440,7 +1437,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1453,20 +1450,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1479,57 +1464,33 @@
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B3" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="H2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10">
-        <v>0.96</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.91</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0.83</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1539,17 +1500,17 @@
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1559,17 +1520,17 @@
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>16</v>
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1579,17 +1540,17 @@
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
         <v>0.75</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>0.75</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1599,17 +1560,17 @@
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
         <v>0.81</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>0.78</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1619,17 +1580,17 @@
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8">
         <v>0.97</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>0.91</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>22</v>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -1639,17 +1600,17 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
         <v>0.93</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>0.93</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1659,17 +1620,17 @@
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8">
         <v>0.86</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>0.86</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>8</v>
+      <c r="D11" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1679,17 +1640,17 @@
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8">
         <v>0.75</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>0.75</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>27</v>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1699,48 +1660,68 @@
       <c r="J12"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18" t="s">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="20"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="17"/>
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.83</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="17"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="17"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="20" spans="5:5">
       <c r="E20"/>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>模型</t>
   </si>
@@ -41,6 +41,10 @@
     <t>备注</t>
   </si>
   <si>
+    <t>imdb
+models</t>
+  </si>
+  <si>
     <t>Attention_LSTM</t>
   </si>
   <si>
@@ -116,10 +120,41 @@
     <t>size of tensor不匹配</t>
   </si>
   <si>
+    <t>my
+models</t>
+  </si>
+  <si>
     <t>BoW+RF</t>
   </si>
   <si>
     <t>Word2Vec+RF</t>
+  </si>
+  <si>
+    <t>设备信息</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Kaggle GPU</t>
+  </si>
+  <si>
+    <t>I5-6300HQ @2.8GHz</t>
+  </si>
+  <si>
+    <t>16G</t>
+  </si>
+  <si>
+    <t>GTX1060 6G</t>
+  </si>
+  <si>
+    <t>Tesla P100</t>
   </si>
 </sst>
 </file>
@@ -485,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -515,6 +550,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -542,19 +590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -580,6 +615,32 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -709,7 +770,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,34 +782,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,65 +894,92 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1419,314 +1507,328 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="21.6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.2666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7583333333333" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.2666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.7916666666667" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="18.6916666666667" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
         <v>0.93</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="7">
         <v>0.86</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11">
         <v>0.96</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D3" s="12">
         <v>0.91</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11">
         <v>0.75</v>
       </c>
-      <c r="C7" s="9">
+      <c r="D7" s="12">
         <v>0.75</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11">
         <v>0.81</v>
       </c>
-      <c r="C8" s="9">
+      <c r="D8" s="12">
         <v>0.78</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7" t="s">
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11">
         <v>0.97</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D9" s="12">
         <v>0.91</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7" t="s">
+      <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11">
         <v>0.93</v>
       </c>
-      <c r="C10" s="9">
+      <c r="D10" s="12">
         <v>0.93</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
+      <c r="E10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11">
         <v>0.86</v>
       </c>
-      <c r="C11" s="9">
+      <c r="D11" s="12">
         <v>0.86</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7" t="s">
+      <c r="E11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="11">
         <v>0.75</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D12" s="12">
         <v>0.75</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="E12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12" t="s">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="16" t="s">
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19">
         <v>0.85</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="21">
         <v>0.83</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="11"/>
+      <c r="E16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="22"/>
+      <c r="B19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>模型</t>
   </si>
@@ -894,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,6 +935,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1510,7 +1516,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1720,24 +1726,26 @@
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13"/>
+      <c r="C13" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -1746,16 +1754,16 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="21">
         <v>0.85</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1765,33 +1773,33 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="23">
         <v>0.83</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1800,23 +1808,23 @@
       <c r="D18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="29" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="22"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="29" t="s">
         <v>41</v>
       </c>
     </row>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>模型</t>
   </si>
@@ -69,6 +69,9 @@
     <t>BERT_Trainer</t>
   </si>
   <si>
+    <t>适配了最新的库，kaggle跑出来了</t>
+  </si>
+  <si>
     <t>Capsule_LSTM</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t>DistilBERT_Trainer</t>
-  </si>
-  <si>
-    <t>适配了最新的库，kaggle跑出来了</t>
   </si>
   <si>
     <t>GRU</t>
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1598,21 +1598,21 @@
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>10</v>
+      <c r="C5" s="14">
+        <v>0.94</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.94</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>10</v>
@@ -1621,14 +1621,14 @@
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="11">
         <v>0.75</v>
@@ -1637,14 +1637,14 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="11">
         <v>0.81</v>
@@ -1653,14 +1653,14 @@
         <v>0.78</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="11">
         <v>0.97</v>
@@ -1669,14 +1669,14 @@
         <v>0.91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11">
         <v>0.93</v>
@@ -1685,7 +1685,7 @@
         <v>0.93</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -1733,7 +1733,7 @@
         <v>0.95</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F13" s="9"/>
     </row>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -63,7 +63,7 @@
     <t>/</t>
   </si>
   <si>
-    <t>适配了最新的库，跑不出来</t>
+    <t>修正前向传播时labels参数调用逻辑问题</t>
   </si>
   <si>
     <t>BERT_Trainer</t>
@@ -75,7 +75,7 @@
     <t>Capsule_LSTM</t>
   </si>
   <si>
-    <t>input和target的batch_size不匹配</t>
+    <t>修正torch.cat时的tensor size不匹配问题</t>
   </si>
   <si>
     <t>CNN</t>
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1524,7 +1524,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="21.6" style="1" customWidth="1"/>
     <col min="3" max="4" width="13.2666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.7916666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.2916666666667" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>模型</t>
   </si>
@@ -60,61 +60,61 @@
     <t>BERT_Scratch</t>
   </si>
   <si>
+    <t>修正前向传播时labels参数调用逻辑问题</t>
+  </si>
+  <si>
+    <t>BERT_Trainer</t>
+  </si>
+  <si>
+    <t>适配了最新的库，kaggle跑出来了</t>
+  </si>
+  <si>
+    <t>Capsule_LSTM</t>
+  </si>
+  <si>
+    <t>修正torch.cat时的tensor size不匹配问题</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>改为跑20轮，效果有一定提升</t>
+  </si>
+  <si>
+    <t>CNN_LSTM</t>
+  </si>
+  <si>
+    <t>比起纯CNN效果有一定提升</t>
+  </si>
+  <si>
+    <t>DistilBERT_Native</t>
+  </si>
+  <si>
+    <t>速度非常慢，显存占用非常高</t>
+  </si>
+  <si>
+    <t>DistilBERT_Trainer</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>速度较快，效果还行</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>速度较快，效果一般</t>
+  </si>
+  <si>
+    <t>RoBERTa_Trainer</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>修正前向传播时labels参数调用逻辑问题</t>
-  </si>
-  <si>
-    <t>BERT_Trainer</t>
-  </si>
-  <si>
-    <t>适配了最新的库，kaggle跑出来了</t>
-  </si>
-  <si>
-    <t>Capsule_LSTM</t>
-  </si>
-  <si>
-    <t>修正torch.cat时的tensor size不匹配问题</t>
-  </si>
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>改为跑20轮，效果有一定提升</t>
-  </si>
-  <si>
-    <t>CNN_LSTM</t>
-  </si>
-  <si>
-    <t>比起纯CNN效果有一定提升</t>
-  </si>
-  <si>
-    <t>DistilBERT_Native</t>
-  </si>
-  <si>
-    <t>速度非常慢，显存占用非常高</t>
-  </si>
-  <si>
-    <t>DistilBERT_Trainer</t>
-  </si>
-  <si>
-    <t>GRU</t>
-  </si>
-  <si>
-    <t>速度较快，效果还行</t>
-  </si>
-  <si>
-    <t>LSTM</t>
-  </si>
-  <si>
-    <t>速度较快，效果一般</t>
-  </si>
-  <si>
-    <t>RoBERTa_Trainer</t>
-  </si>
-  <si>
-    <t>Transformer</t>
   </si>
   <si>
     <t>size of tensor不匹配</t>
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1582,21 +1582,21 @@
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="14">
         <v>0.94</v>
@@ -1605,30 +1605,30 @@
         <v>0.94</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.89</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.88</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11">
         <v>0.75</v>
@@ -1637,14 +1637,14 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="11">
         <v>0.81</v>
@@ -1653,14 +1653,14 @@
         <v>0.78</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="11">
         <v>0.97</v>
@@ -1669,14 +1669,14 @@
         <v>0.91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11">
         <v>0.93</v>
@@ -1685,14 +1685,14 @@
         <v>0.93</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="11">
         <v>0.86</v>
@@ -1701,14 +1701,14 @@
         <v>0.86</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="11">
         <v>0.75</v>
@@ -1717,14 +1717,14 @@
         <v>0.75</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="14">
         <v>0.95</v>
@@ -1733,20 +1733,20 @@
         <v>0.95</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>10</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>29</v>
@@ -1761,13 +1761,13 @@
         <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D15" s="21">
         <v>0.85</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -1777,13 +1777,13 @@
         <v>32</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D16" s="23">
         <v>0.83</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="9"/>
     </row>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>模型</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>size of tensor不匹配</t>
+  </si>
+  <si>
+    <t>Deberta_lora</t>
+  </si>
+  <si>
+    <t>Deberta_prompt</t>
+  </si>
+  <si>
+    <t>Deberta_prefix</t>
+  </si>
+  <si>
+    <t>Deberta_ptuning</t>
+  </si>
+  <si>
+    <t>Bert_rdrop</t>
+  </si>
+  <si>
+    <t>Bert_scl</t>
   </si>
   <si>
     <t>my
@@ -520,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -538,6 +556,28 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -547,44 +587,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -603,17 +606,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -625,6 +617,21 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -770,7 +777,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,34 +789,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,69 +914,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -979,13 +1004,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1513,13 +1541,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="21.6" style="1" customWidth="1"/>
@@ -1553,289 +1581,409 @@
       <c r="C2" s="6">
         <v>0.93</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.86</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0.96</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>0.91</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>0.93</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="10">
         <v>0.93</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>0.94</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>0.94</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>0.89</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <v>0.88</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0.75</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>0.75</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0.81</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>0.78</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>0.97</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>0.91</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10" t="s">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>0.93</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>0.93</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="10" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0.86</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>0.86</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="10" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>0.75</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>0.75</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="10" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="10">
         <v>0.95</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="10">
         <v>0.95</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="16" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="19" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8"/>
+      <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8"/>
+      <c r="B16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="8"/>
+      <c r="B17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8"/>
+      <c r="B18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="8"/>
+      <c r="B19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D21" s="25">
         <v>0.85</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D22" s="29">
         <v>0.83</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="24"/>
-      <c r="B19" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="B24" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="C24" s="35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20"/>
+      <c r="D24" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="30"/>
+      <c r="B25" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>模型</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>epochs</t>
   </si>
   <si>
     <t>imdb
@@ -51,6 +54,18 @@
     <t>速度较快</t>
   </si>
   <si>
+    <t>embed_size=300</t>
+  </si>
+  <si>
+    <t>num_hiddens=128</t>
+  </si>
+  <si>
+    <t>num_layers=2</t>
+  </si>
+  <si>
+    <t>batch_size=64</t>
+  </si>
+  <si>
     <t>BERT_Native</t>
   </si>
   <si>
@@ -69,6 +84,15 @@
     <t>适配了最新的库，kaggle跑出来了</t>
   </si>
   <si>
+    <t>BERT_RDrop</t>
+  </si>
+  <si>
+    <t>速度慢，效果不错</t>
+  </si>
+  <si>
+    <t>BERT_SCL</t>
+  </si>
+  <si>
     <t>Capsule_LSTM</t>
   </si>
   <si>
@@ -120,7 +144,10 @@
     <t>size of tensor不匹配</t>
   </si>
   <si>
-    <t>Deberta_lora</t>
+    <t>Deberta_LoRA</t>
+  </si>
+  <si>
+    <t>速度还行，效果不错</t>
   </si>
   <si>
     <t>Deberta_prompt</t>
@@ -130,49 +157,16 @@
   </si>
   <si>
     <t>Deberta_ptuning</t>
-  </si>
-  <si>
-    <t>Bert_rdrop</t>
-  </si>
-  <si>
-    <t>Bert_scl</t>
   </si>
   <si>
     <t>my
 models</t>
   </si>
   <si>
-    <t>BoW+RF</t>
+    <t>BOW+RF</t>
   </si>
   <si>
     <t>Word2Vec+RF</t>
-  </si>
-  <si>
-    <t>设备信息</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>GPU</t>
-  </si>
-  <si>
-    <t>Kaggle GPU</t>
-  </si>
-  <si>
-    <t>I5-6300HQ @2.8GHz</t>
-  </si>
-  <si>
-    <t>16G</t>
-  </si>
-  <si>
-    <t>GTX1060 6G</t>
-  </si>
-  <si>
-    <t>Tesla P100</t>
   </si>
 </sst>
 </file>
@@ -538,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -607,47 +601,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -777,7 +730,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,34 +742,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +867,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -923,9 +879,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,71 +903,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1541,10 +1455,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1552,11 +1466,16 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="21.6" style="1" customWidth="1"/>
     <col min="3" max="4" width="13.2666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.2916666666667" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="34.0416666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.05" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7416666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.475" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1570,29 +1489,46 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
         <v>0.93</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>0.86</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10">
         <v>0.96</v>
@@ -1601,14 +1537,14 @@
         <v>0.91</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10">
         <v>0.93</v>
@@ -1617,14 +1553,14 @@
         <v>0.93</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="10">
         <v>0.94</v>
@@ -1633,127 +1569,121 @@
         <v>0.94</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="D6" s="10">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="D7" s="10">
-        <v>0.75</v>
+        <v>0.94</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="D8" s="10">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="D9" s="10">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4">
         <v>20</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="10">
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
       <c r="D10" s="10">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="D11" s="10">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="D12" s="10">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
@@ -1764,16 +1694,16 @@
     <row r="13" spans="1:10">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="10">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="D13" s="10">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
@@ -1784,18 +1714,18 @@
     <row r="14" spans="1:10">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.75</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -1803,17 +1733,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8"/>
-      <c r="B15" s="15" t="s">
-        <v>30</v>
+      <c r="B15" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="10">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="D15" s="10">
-        <v>0.94</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -1821,12 +1753,18 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8"/>
-      <c r="B16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1836,13 +1774,19 @@
     <row r="17" spans="1:10">
       <c r="A17" s="8"/>
       <c r="B17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1850,64 +1794,60 @@
     <row r="18" spans="1:10">
       <c r="A18" s="8"/>
       <c r="B18" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8"/>
-      <c r="B19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="17">
-        <v>0.93</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0.94</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="14"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="25">
+      <c r="D21" s="20">
         <v>0.85</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -1916,18 +1856,18 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="29">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="22">
         <v>0.83</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>23</v>
+      <c r="E22" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -1936,54 +1876,21 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>模型</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>epochs</t>
+  </si>
+  <si>
+    <t>参数设定</t>
   </si>
   <si>
     <t>imdb
@@ -72,24 +75,57 @@
     <t>速度非常慢，显存占用较高</t>
   </si>
   <si>
+    <t>TK=BertTokenizerFast</t>
+  </si>
+  <si>
+    <t>train_batch_size=8</t>
+  </si>
+  <si>
+    <t>eval_batch_size=16</t>
+  </si>
+  <si>
+    <t>test_batch_size=16</t>
+  </si>
+  <si>
     <t>BERT_Scratch</t>
   </si>
   <si>
     <t>修正前向传播时labels参数调用逻辑问题</t>
   </si>
   <si>
+    <t>TK=BertScratch</t>
+  </si>
+  <si>
+    <t>train_batch_size=6</t>
+  </si>
+  <si>
+    <t>eval_batch_size=12</t>
+  </si>
+  <si>
     <t>BERT_Trainer</t>
   </si>
   <si>
     <t>适配了最新的库，kaggle跑出来了</t>
   </si>
   <si>
+    <t>train_batch_size=16</t>
+  </si>
+  <si>
+    <t>eval_batch_size=32</t>
+  </si>
+  <si>
     <t>BERT_RDrop</t>
   </si>
   <si>
     <t>速度慢，效果不错</t>
   </si>
   <si>
+    <t>train_batch_size=4</t>
+  </si>
+  <si>
+    <t>eval_batch_size=8</t>
+  </si>
+  <si>
     <t>BERT_SCL</t>
   </si>
   <si>
@@ -103,6 +139,9 @@
   </si>
   <si>
     <t>改为跑20轮，效果有一定提升</t>
+  </si>
+  <si>
+    <t>filter_size = 3</t>
   </si>
   <si>
     <t>CNN_LSTM</t>
@@ -532,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -551,6 +590,32 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -730,7 +795,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,34 +807,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,6 +932,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,56 +950,62 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1457,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1468,14 +1545,14 @@
     <col min="3" max="4" width="13.2666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.0416666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.2916666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.05" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7416666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.475" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3166666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.2333333333333" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1486,409 +1563,500 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9">
         <v>0.93</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>0.86</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="15">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10">
-        <v>0.96</v>
-      </c>
-      <c r="D3" s="10">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="15">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="D11" s="13">
         <v>0.91</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="E11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="13">
         <v>0.93</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D12" s="13">
         <v>0.93</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="E12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11"/>
+      <c r="B17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="13">
         <v>0.94</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D17" s="13">
         <v>0.94</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.94</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.94</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.88</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.81</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.78</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.97</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="8"/>
-      <c r="B17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.94</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.94</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="E17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="8"/>
-      <c r="B18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="8"/>
-      <c r="B19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0.85</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="25">
         <v>0.83</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="E22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="24"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A22"/>
   </mergeCells>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>模型</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>比起纯CNN效果有一定提升</t>
+  </si>
+  <si>
+    <t>num_layers = 2</t>
   </si>
   <si>
     <t>DistilBERT_Native</t>
@@ -571,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -622,24 +625,44 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -652,6 +675,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -661,10 +708,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -795,7 +875,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,34 +887,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,7 +1018,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -953,59 +1036,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1532,10 +1654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1549,10 +1671,11 @@
     <col min="8" max="8" width="19.05" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.3166666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.2333333333333" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="15.775" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1572,60 +1695,62 @@
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="38"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>0.93</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>0.86</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="16">
         <v>0.96</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="16">
         <v>0.91</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="18">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1637,25 +1762,26 @@
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="K3" s="40"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="16">
         <v>0.93</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="16">
         <v>0.93</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="18">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1664,25 +1790,26 @@
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="16">
         <v>0.94</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <v>0.94</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="18">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1691,25 +1818,26 @@
       <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="16">
         <v>0.93</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="16">
         <v>0.94</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="18">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1718,25 +1846,26 @@
       <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="16">
         <v>0.93</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="16">
         <v>0.94</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="18">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1745,25 +1874,26 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="16">
         <v>0.89</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="16">
         <v>0.88</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="18">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="19" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1775,288 +1905,315 @@
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K8" s="40"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="16">
         <v>0.75</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="16">
         <v>0.75</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="18">
         <v>20</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="18">
         <v>10</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="G10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.81</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.78</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="15"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="K11" s="40"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="15"/>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="K12" s="40"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.93</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.93</v>
-      </c>
-      <c r="E12" s="14" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="40"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.86</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.86</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="40"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="14"/>
+      <c r="B17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="14"/>
+      <c r="B18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="14"/>
+      <c r="B19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0.85</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="39"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="14" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="11"/>
-      <c r="B17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="11"/>
-      <c r="B18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="25">
+      <c r="D22" s="27">
         <v>0.83</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="E22" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="27"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A22"/>
   </mergeCells>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>模型</t>
   </si>
@@ -189,16 +189,22 @@
     <t>Deberta_LoRA</t>
   </si>
   <si>
-    <t>速度还行，效果不错</t>
+    <t>速度慢，效果全场最佳</t>
   </si>
   <si>
     <t>Deberta_prompt</t>
   </si>
   <si>
+    <t>速度慢，效果一般</t>
+  </si>
+  <si>
     <t>Deberta_prefix</t>
   </si>
   <si>
     <t>Deberta_ptuning</t>
+  </si>
+  <si>
+    <t>速度慢，效果差</t>
   </si>
   <si>
     <t>my
@@ -999,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,14 +1039,11 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,23 +1057,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1081,49 +1081,61 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
@@ -1656,8 +1668,8 @@
   <sheetPr/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1698,7 +1710,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="38"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
@@ -1716,500 +1728,522 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>0.96</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>0.91</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>0.93</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0.93</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>3</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>0.94</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>0.94</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>3</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>0.93</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>0.94</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>0.93</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>0.94</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>3</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="40"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>0.89</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>0.88</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>10</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>0.75</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>0.75</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>20</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>0.81</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>0.78</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>10</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>0.97</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>0.91</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="K11" s="40"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>0.93</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>0.93</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="K12" s="40"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>0.86</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>0.86</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="40"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>0.75</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>0.75</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="40"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>0.95</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>0.95</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="40"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="40"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="14"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="16">
-        <v>0.94</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0.94</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="C17" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="40"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="14"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="40"/>
+      <c r="C18" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="14"/>
-      <c r="B19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="40"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.58</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.58</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="42"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <v>0.85</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="39"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="33" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="33">
         <v>0.83</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="42"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="36"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -1669,7 +1669,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1669,7 +1669,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>模型</t>
   </si>
@@ -78,6 +78,9 @@
     <t>TK=BertTokenizerFast</t>
   </si>
   <si>
+    <t>SC=Bert</t>
+  </si>
+  <si>
     <t>train_batch_size=8</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
     <t>改为跑20轮，效果有一定提升</t>
   </si>
   <si>
+    <t>num_filter = 128</t>
+  </si>
+  <si>
     <t>filter_size = 3</t>
   </si>
   <si>
@@ -159,15 +165,84 @@
     <t>速度非常慢，显存占用非常高</t>
   </si>
   <si>
+    <t>TK=DistilBert</t>
+  </si>
+  <si>
+    <t>SC=distilbert-base-uncased</t>
+  </si>
+  <si>
+    <t>train_batch_size=12</t>
+  </si>
+  <si>
+    <t>eval_batch_size=24</t>
+  </si>
+  <si>
     <t>DistilBERT_Trainer</t>
   </si>
   <si>
+    <t>Deberta_LoRA</t>
+  </si>
+  <si>
+    <t>速度慢，效果全场最佳</t>
+  </si>
+  <si>
+    <t>r=16</t>
+  </si>
+  <si>
+    <t>lora_alpha=32</t>
+  </si>
+  <si>
+    <t>lora_dropout=0.05</t>
+  </si>
+  <si>
+    <t>train_batch_size=2</t>
+  </si>
+  <si>
+    <t>eval_batch_size=4</t>
+  </si>
+  <si>
+    <t>Deberta_prompt</t>
+  </si>
+  <si>
+    <t>速度慢，效果一般</t>
+  </si>
+  <si>
+    <t>num_virtual_tokens=10</t>
+  </si>
+  <si>
+    <t>task_type=TaskType.SEQ_CLS</t>
+  </si>
+  <si>
+    <t>Deberta_prefix</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>模型不兼容</t>
+  </si>
+  <si>
+    <t>num_virtual_tokens=20</t>
+  </si>
+  <si>
+    <t>Deberta_ptuning</t>
+  </si>
+  <si>
+    <t>速度慢，效果差</t>
+  </si>
+  <si>
+    <t>encoder_hidden_size=128</t>
+  </si>
+  <si>
     <t>GRU</t>
   </si>
   <si>
     <t>速度较快，效果还行</t>
   </si>
   <si>
+    <t>num_hiddens=120</t>
+  </si>
+  <si>
     <t>LSTM</t>
   </si>
   <si>
@@ -177,34 +252,22 @@
     <t>RoBERTa_Trainer</t>
   </si>
   <si>
+    <t>TK=Roberta</t>
+  </si>
+  <si>
+    <t>SC=Roberta</t>
+  </si>
+  <si>
     <t>Transformer</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>size of tensor不匹配</t>
-  </si>
-  <si>
-    <t>Deberta_LoRA</t>
-  </si>
-  <si>
-    <t>速度慢，效果全场最佳</t>
-  </si>
-  <si>
-    <t>Deberta_prompt</t>
-  </si>
-  <si>
-    <t>速度慢，效果一般</t>
-  </si>
-  <si>
-    <t>Deberta_prefix</t>
-  </si>
-  <si>
-    <t>Deberta_ptuning</t>
-  </si>
-  <si>
-    <t>速度慢，效果差</t>
+    <t>未修正</t>
+  </si>
+  <si>
+    <t>embed_size=120</t>
+  </si>
+  <si>
+    <t>activation="relu"</t>
   </si>
   <si>
     <t>my
@@ -214,7 +277,25 @@
     <t>BOW+RF</t>
   </si>
   <si>
+    <t>max_features=5000</t>
+  </si>
+  <si>
+    <t>n_estimators=100</t>
+  </si>
+  <si>
     <t>Word2Vec+RF</t>
+  </si>
+  <si>
+    <t>num_features = 300</t>
+  </si>
+  <si>
+    <t>min_word_count = 40</t>
+  </si>
+  <si>
+    <t>num_workers = 4</t>
+  </si>
+  <si>
+    <t>context = 10</t>
   </si>
 </sst>
 </file>
@@ -580,7 +661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -613,18 +694,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -632,31 +707,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -677,7 +728,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -694,33 +747,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -881,7 +910,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,34 +922,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,89 +1053,140 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1114,31 +1194,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1669,7 +1728,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1679,11 +1738,11 @@
     <col min="3" max="4" width="13.2666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.0416666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.2916666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.05" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.55" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.2333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.775" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.9333333333333" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1701,71 +1760,71 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="39"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>0.93</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0.86</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>0.96</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0.91</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="16">
         <v>3</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="18" t="s">
@@ -1774,142 +1833,152 @@
       <c r="J3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="49" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13">
         <v>0.93</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0.93</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>20</v>
+      <c r="E4" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="F4" s="16">
         <v>3</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="12" t="s">
         <v>22</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="41"/>
+      <c r="J4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13">
         <v>0.94</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0.94</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>25</v>
+      <c r="E5" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="16">
         <v>3</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>26</v>
+      <c r="H5" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="41"/>
+      <c r="J5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13">
         <v>0.93</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0.94</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>29</v>
+      <c r="E6" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>30</v>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="41"/>
+      <c r="J6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="13">
         <v>0.93</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0.94</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>29</v>
+      <c r="E7" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="16">
         <v>3</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="41"/>
+      <c r="J7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13">
         <v>0.89</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0.88</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>34</v>
+      <c r="E8" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="F8" s="16">
         <v>10</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="18" t="s">
@@ -1921,329 +1990,461 @@
       <c r="J8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="41"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13">
         <v>0.75</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0.75</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>36</v>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="F9" s="16">
         <v>20</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13">
         <v>0.81</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0.78</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>39</v>
+      <c r="E10" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="F10" s="16">
         <v>10</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="49" t="s">
         <v>12</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="13">
         <v>0.97</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0.91</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="41"/>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="13">
         <v>0.93</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>0.93</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="41"/>
+      <c r="E12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.86</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.86</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="41"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="41"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="41"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="16">
+        <v>3</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="41"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.58</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.58</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="13"/>
-      <c r="B17" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="41"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="16">
+        <v>10</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="13"/>
-      <c r="B18" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.71</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0.71</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="41"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="16">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="13"/>
-      <c r="B19" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="41"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="16">
+        <v>3</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="50"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0.58</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.58</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="42"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="16">
+        <v>10</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="29">
+      <c r="A21" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="33">
         <v>0.85</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="43"/>
+      <c r="E21" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="35">
+        <v>1</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="53"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="33">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="26">
         <v>0.83</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="44"/>
+      <c r="E22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="42">
+        <v>1</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -1034,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,15 +1095,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1140,9 +1131,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1161,9 +1149,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1173,9 +1158,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1185,9 +1167,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1195,9 +1174,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1728,7 +1704,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1769,7 +1745,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="47"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
@@ -1802,7 +1778,7 @@
       <c r="J2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="48"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11"/>
@@ -1833,7 +1809,7 @@
       <c r="J3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1866,7 +1842,7 @@
       <c r="J4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="11"/>
@@ -1897,7 +1873,7 @@
       <c r="J5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="49"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11"/>
@@ -1928,7 +1904,7 @@
       <c r="J6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="49"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11"/>
@@ -1959,7 +1935,7 @@
       <c r="J7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="49"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11"/>
@@ -1990,7 +1966,7 @@
       <c r="J8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="50"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="11"/>
@@ -2018,10 +1994,10 @@
       <c r="I9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="49"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="11"/>
@@ -2049,10 +2025,10 @@
       <c r="I10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2085,7 +2061,7 @@
       <c r="J11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="50"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="11"/>
@@ -2116,7 +2092,7 @@
       <c r="J12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="50"/>
+      <c r="K12" s="43"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="11"/>
@@ -2135,7 +2111,7 @@
       <c r="F13" s="16">
         <v>3</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -2147,7 +2123,7 @@
       <c r="J13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2168,7 +2144,7 @@
       <c r="F14" s="16">
         <v>3</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="17" t="s">
@@ -2180,7 +2156,7 @@
       <c r="J14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="11"/>
@@ -2193,13 +2169,13 @@
       <c r="D15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="15" t="s">
         <v>63</v>
       </c>
       <c r="F15" s="16">
         <v>3</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>64</v>
       </c>
       <c r="H15" s="17" t="s">
@@ -2211,7 +2187,7 @@
       <c r="J15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="51"/>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="11"/>
@@ -2233,7 +2209,7 @@
       <c r="G16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="18" t="s">
         <v>67</v>
       </c>
       <c r="I16" s="17" t="s">
@@ -2242,7 +2218,7 @@
       <c r="J16" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2266,16 +2242,16 @@
       <c r="G17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="50"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="11"/>
@@ -2297,16 +2273,16 @@
       <c r="G18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="50"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="11"/>
@@ -2325,10 +2301,10 @@
       <c r="F19" s="16">
         <v>3</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="18" t="s">
         <v>75</v>
       </c>
       <c r="I19" s="18" t="s">
@@ -2337,114 +2313,114 @@
       <c r="J19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="50"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="25" t="s">
         <v>77</v>
       </c>
       <c r="F20" s="16">
         <v>10</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="52" t="s">
+      <c r="K20" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="30">
         <v>0.85</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="53"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="23">
         <v>0.83</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="37">
         <v>1</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="54" t="s">
+      <c r="K22" s="45" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/模型结果记录.xlsx
+++ b/模型结果记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>模型</t>
   </si>
@@ -1701,10 +1701,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2130,53 +2130,55 @@
     <row r="14" spans="1:11">
       <c r="A14" s="11"/>
       <c r="B14" s="19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C14" s="13">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="D14" s="14">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F14" s="16">
         <v>3</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="K14" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="11"/>
       <c r="B15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.71</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F15" s="16">
         <v>3</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>60</v>
@@ -2192,80 +2194,80 @@
     <row r="16" spans="1:11">
       <c r="A16" s="11"/>
       <c r="B16" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.58</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0.58</v>
+        <v>61</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F16" s="16">
         <v>3</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="I16" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="J16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="43" t="s">
         <v>56</v>
       </c>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
-        <v>68</v>
+      <c r="B17" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="C17" s="13">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="D17" s="14">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F17" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="43"/>
+        <v>55</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" s="13">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="D18" s="14">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="16">
         <v>10</v>
@@ -2287,146 +2289,177 @@
     <row r="19" spans="1:11">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="13">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="D19" s="14">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="F19" s="16">
-        <v>3</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>77</v>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="16">
-        <v>10</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>79</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="46"/>
+      <c r="D21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="16">
+        <v>10</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0.85</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="46"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C23" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D23" s="23">
         <v>0.83</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E23" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F23" s="37">
         <v>1</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G23" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H23" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I23" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J23" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K23" s="45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="40"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+    <row r="24" spans="1:10">
+      <c r="A24" s="40"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
